--- a/admin/Exportfile/doc_xlsxflie/รายชื่อผู้ลงชื่อเข้าใช้ประจำวัน.xlsx
+++ b/admin/Exportfile/doc_xlsxflie/รายชื่อผู้ลงชื่อเข้าใช้ประจำวัน.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\main_project3\Exportfile\doc_xlsxflie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\main_project3\admin\Exportfile\doc_xlsxflie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADD436F-0F5F-40D2-B2A1-6F910A0640BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C3E332-9C99-4FB8-82B1-A89E067354E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ชื่อผู้ใช้</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>ลำดับ</t>
+  </si>
+  <si>
+    <t>เวลา</t>
   </si>
 </sst>
 </file>
@@ -400,17 +403,18 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="19.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="7" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -429,7 +433,9 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
